--- a/NRI_STLF_Data/WeatherData/T_kerman/T_kerman94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_kerman/T_kerman94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_kerman\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="6">
   <si>
     <t>Rain</t>
   </si>
@@ -39,12 +44,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -132,7 +137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,7 +172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="F366" sqref="F366:AC388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -464,7 +469,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -541,7 +546,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -621,7 +626,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -698,7 +703,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -775,7 +780,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -852,7 +857,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -935,7 +940,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1015,7 +1020,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1089,7 +1094,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1166,7 +1171,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1249,7 +1254,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1329,7 +1334,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1409,7 +1414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1483,7 +1488,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1637,7 +1642,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1791,7 +1796,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1871,7 +1876,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1951,7 +1956,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -2028,7 +2033,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2265,7 +2270,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2345,7 +2350,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2425,7 +2430,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2582,7 +2587,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2662,7 +2667,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2819,7 +2824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2896,7 +2901,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2970,7 +2975,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -3050,7 +3055,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3127,7 +3132,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3207,7 +3212,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3284,7 +3289,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3361,7 +3366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3441,7 +3446,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3518,7 +3523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3595,7 +3600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3672,7 +3677,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3752,7 +3757,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3832,7 +3837,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3912,7 +3917,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3992,7 +3997,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -4069,7 +4074,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -4152,7 +4157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4229,7 +4234,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4309,7 +4314,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4392,7 +4397,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4469,7 +4474,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4546,7 +4551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4623,7 +4628,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4700,7 +4705,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4780,7 +4785,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4860,7 +4865,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4937,7 +4942,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -5014,7 +5019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -5091,7 +5096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -5168,7 +5173,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5248,7 +5253,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5325,7 +5330,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5402,7 +5407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5479,7 +5484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5559,7 +5564,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5639,7 +5644,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5716,7 +5721,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5793,7 +5798,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5870,7 +5875,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5947,7 +5952,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -6024,7 +6029,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -6101,7 +6106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -6178,7 +6183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6252,7 +6257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6329,7 +6334,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6406,7 +6411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6486,7 +6491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6563,7 +6568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6640,7 +6645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6720,7 +6725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6797,7 +6802,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6871,7 +6876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6948,7 +6953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -7022,7 +7027,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -7096,7 +7101,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -7173,7 +7178,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -7250,7 +7255,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7327,7 +7332,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7404,7 +7409,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7481,7 +7486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7561,7 +7566,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7638,7 +7643,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7715,7 +7720,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7792,7 +7797,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7869,7 +7874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7946,7 +7951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -8023,7 +8028,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -8103,7 +8108,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -8180,7 +8185,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -8254,7 +8259,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -8328,7 +8333,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8405,7 +8410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8479,7 +8484,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8553,7 +8558,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8630,7 +8635,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8707,7 +8712,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8784,7 +8789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8861,7 +8866,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8935,7 +8940,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -9009,7 +9014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -9089,7 +9094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -9166,7 +9171,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -9243,7 +9248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -9320,7 +9325,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9397,7 +9402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9474,7 +9479,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9554,7 +9559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9631,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9708,7 +9713,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9785,7 +9790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9862,7 +9867,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9942,7 +9947,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -10025,7 +10030,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -10102,7 +10107,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -10179,7 +10184,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -10259,7 +10264,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -10339,7 +10344,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10416,7 +10421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10496,7 +10501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10576,7 +10581,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10653,7 +10658,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10733,7 +10738,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10810,7 +10815,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10887,7 +10892,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10967,7 +10972,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -11044,7 +11049,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -11121,7 +11126,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -11198,7 +11203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -11275,7 +11280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -11352,7 +11357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11432,7 +11437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11512,7 +11517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11589,7 +11594,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11663,7 +11668,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11740,7 +11745,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11814,7 +11819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11891,7 +11896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11965,7 +11970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -12039,7 +12044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -12116,7 +12121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -12190,7 +12195,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -12264,7 +12269,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -12338,7 +12343,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -12415,7 +12420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12492,7 +12497,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12572,7 +12577,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12649,7 +12654,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12726,7 +12731,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12803,7 +12808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12880,7 +12885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12957,7 +12962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -13037,7 +13042,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -13114,7 +13119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -13191,7 +13196,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -13271,7 +13276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -13351,7 +13356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -13431,7 +13436,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -13508,7 +13513,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13585,7 +13590,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13662,7 +13667,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13739,7 +13744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13813,7 +13818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13890,7 +13895,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13967,7 +13972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -14047,7 +14052,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -14124,7 +14129,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -14204,7 +14209,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -14281,7 +14286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -14358,7 +14363,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -14438,7 +14443,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -14518,7 +14523,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14598,7 +14603,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14678,7 +14683,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14752,7 +14757,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14826,7 +14831,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14900,7 +14905,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14974,7 +14979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -15051,7 +15056,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -15128,7 +15133,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -15205,7 +15210,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -15282,7 +15287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -15362,7 +15367,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -15442,7 +15447,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -15519,7 +15524,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -15596,7 +15601,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15670,7 +15675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15747,7 +15752,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15824,7 +15829,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15901,7 +15906,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15978,7 +15983,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -16055,7 +16060,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -16129,7 +16134,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -16206,7 +16211,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -16283,7 +16288,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -16360,7 +16365,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -16437,7 +16442,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -16514,7 +16519,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -16591,7 +16596,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16668,7 +16673,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16745,7 +16750,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16822,7 +16827,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16899,7 +16904,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16976,7 +16981,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -17053,7 +17058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -17130,7 +17135,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -17210,7 +17215,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -17287,7 +17292,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -17361,7 +17366,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -17435,7 +17440,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -17509,7 +17514,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -17586,7 +17591,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17663,7 +17668,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17740,7 +17745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17817,7 +17822,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17894,7 +17899,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17971,7 +17976,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -18048,7 +18053,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -18125,7 +18130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -18199,7 +18204,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -18276,7 +18281,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -18353,7 +18358,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -18436,7 +18441,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -18516,7 +18521,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -18596,7 +18601,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18676,7 +18681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18759,7 +18764,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18833,7 +18838,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18907,7 +18912,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -18984,7 +18989,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -19058,7 +19063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -19132,7 +19137,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -19209,7 +19214,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -19286,7 +19291,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -19363,7 +19368,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -19440,7 +19445,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -19517,7 +19522,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -19591,7 +19596,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19668,7 +19673,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19742,7 +19747,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19819,7 +19824,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19893,7 +19898,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -19970,7 +19975,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -20044,7 +20049,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -20121,7 +20126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -20195,7 +20200,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -20269,7 +20274,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -20343,7 +20348,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -20420,7 +20425,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -20497,7 +20502,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -20574,7 +20579,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20657,7 +20662,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20734,7 +20739,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20808,7 +20813,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20882,7 +20887,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -20956,7 +20961,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -21030,7 +21035,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -21104,7 +21109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -21178,7 +21183,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -21255,7 +21260,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -21332,7 +21337,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -21406,7 +21411,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -21480,7 +21485,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -21557,7 +21562,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21634,7 +21639,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21714,7 +21719,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21791,7 +21796,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21868,7 +21873,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -21948,7 +21953,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -22028,7 +22033,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -22108,7 +22113,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -22188,7 +22193,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -22265,7 +22270,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -22339,7 +22344,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -22416,7 +22421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -22496,7 +22501,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -22573,7 +22578,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22656,7 +22661,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22739,7 +22744,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22813,7 +22818,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22887,7 +22892,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -22961,7 +22966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -23035,7 +23040,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -23109,7 +23114,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -23186,7 +23191,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -23266,7 +23271,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -23340,7 +23345,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -23414,7 +23419,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -23491,7 +23496,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -23565,7 +23570,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -23639,7 +23644,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23713,7 +23718,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23787,7 +23792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23861,7 +23866,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -23935,7 +23940,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -24009,7 +24014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -24083,7 +24088,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -24157,7 +24162,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -24231,7 +24236,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -24308,7 +24313,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -24391,7 +24396,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -24471,7 +24476,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -24548,7 +24553,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24628,7 +24633,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24705,7 +24710,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24782,7 +24787,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24856,7 +24861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -24930,7 +24935,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -25004,7 +25009,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -25081,7 +25086,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -25161,7 +25166,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -25235,7 +25240,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -25309,7 +25314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -25386,7 +25391,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -25466,7 +25471,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -25546,7 +25551,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -25620,7 +25625,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25703,7 +25708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25783,7 +25788,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25860,7 +25865,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -25934,7 +25939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -26014,7 +26019,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -26094,7 +26099,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -26174,7 +26179,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -26254,7 +26259,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -26328,7 +26333,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -26402,7 +26407,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -26476,7 +26481,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -26550,7 +26555,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -26624,7 +26629,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26701,7 +26706,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26778,7 +26783,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -26855,7 +26860,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -26932,7 +26937,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -27009,7 +27014,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -27086,7 +27091,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -27163,7 +27168,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -27240,7 +27245,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -27317,7 +27322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -27394,7 +27399,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -27471,7 +27476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -27548,7 +27553,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -27625,7 +27630,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -27705,7 +27710,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27785,7 +27790,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -27868,7 +27873,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -27945,7 +27950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -28022,7 +28027,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -28102,7 +28107,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -28179,7 +28184,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -28259,7 +28264,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -28339,7 +28344,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -28416,7 +28421,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -28493,7 +28498,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -28565,1480 +28570,6 @@
       </c>
       <c r="AA365">
         <v>240</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>23</v>
-      </c>
-      <c r="G366">
-        <v>12</v>
-      </c>
-      <c r="H366">
-        <v>1</v>
-      </c>
-      <c r="I366">
-        <v>-17</v>
-      </c>
-      <c r="J366">
-        <v>-23</v>
-      </c>
-      <c r="K366">
-        <v>-37</v>
-      </c>
-      <c r="L366">
-        <v>20</v>
-      </c>
-      <c r="M366">
-        <v>10</v>
-      </c>
-      <c r="N366">
-        <v>4</v>
-      </c>
-      <c r="O366">
-        <v>1023</v>
-      </c>
-      <c r="P366">
-        <v>1019</v>
-      </c>
-      <c r="Q366">
-        <v>1012</v>
-      </c>
-      <c r="R366">
-        <v>19</v>
-      </c>
-      <c r="S366">
-        <v>11</v>
-      </c>
-      <c r="T366">
-        <v>10</v>
-      </c>
-      <c r="U366">
-        <v>26</v>
-      </c>
-      <c r="V366">
-        <v>16</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="AA366">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>24</v>
-      </c>
-      <c r="G367">
-        <v>13</v>
-      </c>
-      <c r="H367">
-        <v>3</v>
-      </c>
-      <c r="I367">
-        <v>-4</v>
-      </c>
-      <c r="J367">
-        <v>-14</v>
-      </c>
-      <c r="K367">
-        <v>-26</v>
-      </c>
-      <c r="L367">
-        <v>31</v>
-      </c>
-      <c r="M367">
-        <v>15</v>
-      </c>
-      <c r="N367">
-        <v>4</v>
-      </c>
-      <c r="O367">
-        <v>1024</v>
-      </c>
-      <c r="P367">
-        <v>1019</v>
-      </c>
-      <c r="Q367">
-        <v>1010</v>
-      </c>
-      <c r="R367">
-        <v>14</v>
-      </c>
-      <c r="S367">
-        <v>10</v>
-      </c>
-      <c r="T367">
-        <v>10</v>
-      </c>
-      <c r="U367">
-        <v>26</v>
-      </c>
-      <c r="V367">
-        <v>11</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>5</v>
-      </c>
-      <c r="AA367">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>17</v>
-      </c>
-      <c r="G368">
-        <v>12</v>
-      </c>
-      <c r="H368">
-        <v>7</v>
-      </c>
-      <c r="I368">
-        <v>7</v>
-      </c>
-      <c r="J368">
-        <v>1</v>
-      </c>
-      <c r="K368">
-        <v>-5</v>
-      </c>
-      <c r="L368">
-        <v>93</v>
-      </c>
-      <c r="M368">
-        <v>51</v>
-      </c>
-      <c r="N368">
-        <v>18</v>
-      </c>
-      <c r="O368">
-        <v>1020</v>
-      </c>
-      <c r="P368">
-        <v>1016</v>
-      </c>
-      <c r="Q368">
-        <v>1008</v>
-      </c>
-      <c r="R368">
-        <v>10</v>
-      </c>
-      <c r="S368">
-        <v>10</v>
-      </c>
-      <c r="T368">
-        <v>7</v>
-      </c>
-      <c r="U368">
-        <v>37</v>
-      </c>
-      <c r="V368">
-        <v>18</v>
-      </c>
-      <c r="W368">
-        <v>55</v>
-      </c>
-      <c r="X368">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Y368">
-        <v>7</v>
-      </c>
-      <c r="Z368" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA368">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>20</v>
-      </c>
-      <c r="G369">
-        <v>12</v>
-      </c>
-      <c r="H369">
-        <v>4</v>
-      </c>
-      <c r="I369">
-        <v>5</v>
-      </c>
-      <c r="J369">
-        <v>-2</v>
-      </c>
-      <c r="K369">
-        <v>-13</v>
-      </c>
-      <c r="L369">
-        <v>87</v>
-      </c>
-      <c r="M369">
-        <v>42</v>
-      </c>
-      <c r="N369">
-        <v>5</v>
-      </c>
-      <c r="O369">
-        <v>1019</v>
-      </c>
-      <c r="P369">
-        <v>1015</v>
-      </c>
-      <c r="Q369">
-        <v>1007</v>
-      </c>
-      <c r="R369">
-        <v>10</v>
-      </c>
-      <c r="S369">
-        <v>10</v>
-      </c>
-      <c r="T369">
-        <v>10</v>
-      </c>
-      <c r="U369">
-        <v>45</v>
-      </c>
-      <c r="V369">
-        <v>16</v>
-      </c>
-      <c r="W369">
-        <v>74</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>4</v>
-      </c>
-      <c r="Z369" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA369">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>17</v>
-      </c>
-      <c r="G370">
-        <v>9</v>
-      </c>
-      <c r="H370">
-        <v>1</v>
-      </c>
-      <c r="I370">
-        <v>-2</v>
-      </c>
-      <c r="J370">
-        <v>-7</v>
-      </c>
-      <c r="K370">
-        <v>-15</v>
-      </c>
-      <c r="L370">
-        <v>75</v>
-      </c>
-      <c r="M370">
-        <v>33</v>
-      </c>
-      <c r="N370">
-        <v>5</v>
-      </c>
-      <c r="O370">
-        <v>1027</v>
-      </c>
-      <c r="P370">
-        <v>1023</v>
-      </c>
-      <c r="Q370">
-        <v>1013</v>
-      </c>
-      <c r="R370">
-        <v>10</v>
-      </c>
-      <c r="S370">
-        <v>10</v>
-      </c>
-      <c r="T370">
-        <v>10</v>
-      </c>
-      <c r="U370">
-        <v>23</v>
-      </c>
-      <c r="V370">
-        <v>10</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>1</v>
-      </c>
-      <c r="AA370">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>25</v>
-      </c>
-      <c r="G371">
-        <v>12</v>
-      </c>
-      <c r="H371">
-        <v>0</v>
-      </c>
-      <c r="I371">
-        <v>-6</v>
-      </c>
-      <c r="J371">
-        <v>-13</v>
-      </c>
-      <c r="K371">
-        <v>-27</v>
-      </c>
-      <c r="L371">
-        <v>51</v>
-      </c>
-      <c r="M371">
-        <v>20</v>
-      </c>
-      <c r="N371">
-        <v>4</v>
-      </c>
-      <c r="O371">
-        <v>1028</v>
-      </c>
-      <c r="P371">
-        <v>1024</v>
-      </c>
-      <c r="Q371">
-        <v>1015</v>
-      </c>
-      <c r="R371">
-        <v>31</v>
-      </c>
-      <c r="S371">
-        <v>16</v>
-      </c>
-      <c r="T371">
-        <v>10</v>
-      </c>
-      <c r="U371">
-        <v>19</v>
-      </c>
-      <c r="V371">
-        <v>8</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="AA371">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>27</v>
-      </c>
-      <c r="G372">
-        <v>16</v>
-      </c>
-      <c r="H372">
-        <v>5</v>
-      </c>
-      <c r="I372">
-        <v>-6</v>
-      </c>
-      <c r="J372">
-        <v>-12</v>
-      </c>
-      <c r="K372">
-        <v>-18</v>
-      </c>
-      <c r="L372">
-        <v>42</v>
-      </c>
-      <c r="M372">
-        <v>18</v>
-      </c>
-      <c r="N372">
-        <v>4</v>
-      </c>
-      <c r="O372">
-        <v>1026</v>
-      </c>
-      <c r="P372">
-        <v>1022</v>
-      </c>
-      <c r="Q372">
-        <v>1012</v>
-      </c>
-      <c r="R372">
-        <v>10</v>
-      </c>
-      <c r="S372">
-        <v>10</v>
-      </c>
-      <c r="T372">
-        <v>10</v>
-      </c>
-      <c r="U372">
-        <v>23</v>
-      </c>
-      <c r="V372">
-        <v>14</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="Y372">
-        <v>4</v>
-      </c>
-      <c r="AA372">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>26</v>
-      </c>
-      <c r="G373">
-        <v>17</v>
-      </c>
-      <c r="H373">
-        <v>7</v>
-      </c>
-      <c r="I373">
-        <v>-6</v>
-      </c>
-      <c r="J373">
-        <v>-13</v>
-      </c>
-      <c r="K373">
-        <v>-21</v>
-      </c>
-      <c r="L373">
-        <v>27</v>
-      </c>
-      <c r="M373">
-        <v>12</v>
-      </c>
-      <c r="N373">
-        <v>4</v>
-      </c>
-      <c r="O373">
-        <v>1023</v>
-      </c>
-      <c r="P373">
-        <v>1018</v>
-      </c>
-      <c r="Q373">
-        <v>1007</v>
-      </c>
-      <c r="R373">
-        <v>10</v>
-      </c>
-      <c r="S373">
-        <v>10</v>
-      </c>
-      <c r="T373">
-        <v>10</v>
-      </c>
-      <c r="U373">
-        <v>29</v>
-      </c>
-      <c r="V373">
-        <v>14</v>
-      </c>
-      <c r="W373">
-        <v>45</v>
-      </c>
-      <c r="X373">
-        <v>0</v>
-      </c>
-      <c r="Y373">
-        <v>6</v>
-      </c>
-      <c r="AA373">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>23</v>
-      </c>
-      <c r="G374">
-        <v>18</v>
-      </c>
-      <c r="H374">
-        <v>12</v>
-      </c>
-      <c r="I374">
-        <v>9</v>
-      </c>
-      <c r="J374">
-        <v>-4</v>
-      </c>
-      <c r="K374">
-        <v>-18</v>
-      </c>
-      <c r="L374">
-        <v>77</v>
-      </c>
-      <c r="M374">
-        <v>24</v>
-      </c>
-      <c r="N374">
-        <v>4</v>
-      </c>
-      <c r="O374">
-        <v>1022</v>
-      </c>
-      <c r="P374">
-        <v>1016</v>
-      </c>
-      <c r="Q374">
-        <v>1006</v>
-      </c>
-      <c r="R374">
-        <v>10</v>
-      </c>
-      <c r="S374">
-        <v>9</v>
-      </c>
-      <c r="T374">
-        <v>5</v>
-      </c>
-      <c r="U374">
-        <v>52</v>
-      </c>
-      <c r="V374">
-        <v>19</v>
-      </c>
-      <c r="W374">
-        <v>47</v>
-      </c>
-      <c r="X374">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="Y374">
-        <v>6</v>
-      </c>
-      <c r="Z374" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA374">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>26</v>
-      </c>
-      <c r="G375">
-        <v>17</v>
-      </c>
-      <c r="H375">
-        <v>8</v>
-      </c>
-      <c r="I375">
-        <v>9</v>
-      </c>
-      <c r="J375">
-        <v>4</v>
-      </c>
-      <c r="K375">
-        <v>-1</v>
-      </c>
-      <c r="L375">
-        <v>93</v>
-      </c>
-      <c r="M375">
-        <v>45</v>
-      </c>
-      <c r="N375">
-        <v>11</v>
-      </c>
-      <c r="O375">
-        <v>1021</v>
-      </c>
-      <c r="P375">
-        <v>1016</v>
-      </c>
-      <c r="Q375">
-        <v>1007</v>
-      </c>
-      <c r="R375">
-        <v>10</v>
-      </c>
-      <c r="S375">
-        <v>10</v>
-      </c>
-      <c r="T375">
-        <v>10</v>
-      </c>
-      <c r="U375">
-        <v>29</v>
-      </c>
-      <c r="V375">
-        <v>11</v>
-      </c>
-      <c r="W375">
-        <v>47</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="Y375">
-        <v>3</v>
-      </c>
-      <c r="AA375">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>23</v>
-      </c>
-      <c r="G376">
-        <v>19</v>
-      </c>
-      <c r="H376">
-        <v>15</v>
-      </c>
-      <c r="I376">
-        <v>9</v>
-      </c>
-      <c r="J376">
-        <v>4</v>
-      </c>
-      <c r="K376">
-        <v>1</v>
-      </c>
-      <c r="L376">
-        <v>67</v>
-      </c>
-      <c r="M376">
-        <v>36</v>
-      </c>
-      <c r="N376">
-        <v>16</v>
-      </c>
-      <c r="O376">
-        <v>1019</v>
-      </c>
-      <c r="P376">
-        <v>1015</v>
-      </c>
-      <c r="Q376">
-        <v>1004</v>
-      </c>
-      <c r="R376">
-        <v>10</v>
-      </c>
-      <c r="S376">
-        <v>10</v>
-      </c>
-      <c r="T376">
-        <v>10</v>
-      </c>
-      <c r="U376">
-        <v>34</v>
-      </c>
-      <c r="V376">
-        <v>16</v>
-      </c>
-      <c r="W376">
-        <v>55</v>
-      </c>
-      <c r="X376">
-        <v>0.76</v>
-      </c>
-      <c r="Y376">
-        <v>6</v>
-      </c>
-      <c r="AA376">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>23</v>
-      </c>
-      <c r="G377">
-        <v>17</v>
-      </c>
-      <c r="H377">
-        <v>10</v>
-      </c>
-      <c r="I377">
-        <v>10</v>
-      </c>
-      <c r="J377">
-        <v>3</v>
-      </c>
-      <c r="K377">
-        <v>-1</v>
-      </c>
-      <c r="L377">
-        <v>94</v>
-      </c>
-      <c r="M377">
-        <v>44</v>
-      </c>
-      <c r="N377">
-        <v>12</v>
-      </c>
-      <c r="O377">
-        <v>1020</v>
-      </c>
-      <c r="P377">
-        <v>1015</v>
-      </c>
-      <c r="Q377">
-        <v>1005</v>
-      </c>
-      <c r="R377">
-        <v>14</v>
-      </c>
-      <c r="S377">
-        <v>10</v>
-      </c>
-      <c r="T377">
-        <v>6</v>
-      </c>
-      <c r="U377">
-        <v>35</v>
-      </c>
-      <c r="V377">
-        <v>13</v>
-      </c>
-      <c r="W377">
-        <v>39</v>
-      </c>
-      <c r="X377">
-        <v>7.87</v>
-      </c>
-      <c r="Y377">
-        <v>7</v>
-      </c>
-      <c r="Z377" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA377">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>20</v>
-      </c>
-      <c r="G378">
-        <v>15</v>
-      </c>
-      <c r="H378">
-        <v>10</v>
-      </c>
-      <c r="I378">
-        <v>10</v>
-      </c>
-      <c r="J378">
-        <v>2</v>
-      </c>
-      <c r="K378">
-        <v>-9</v>
-      </c>
-      <c r="L378">
-        <v>100</v>
-      </c>
-      <c r="M378">
-        <v>42</v>
-      </c>
-      <c r="N378">
-        <v>12</v>
-      </c>
-      <c r="O378">
-        <v>1017</v>
-      </c>
-      <c r="P378">
-        <v>1012</v>
-      </c>
-      <c r="Q378">
-        <v>1003</v>
-      </c>
-      <c r="R378">
-        <v>10</v>
-      </c>
-      <c r="S378">
-        <v>10</v>
-      </c>
-      <c r="T378">
-        <v>8</v>
-      </c>
-      <c r="U378">
-        <v>29</v>
-      </c>
-      <c r="V378">
-        <v>16</v>
-      </c>
-      <c r="X378">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="Y378">
-        <v>6</v>
-      </c>
-      <c r="Z378" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA378">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>14</v>
-      </c>
-      <c r="G379">
-        <v>8</v>
-      </c>
-      <c r="H379">
-        <v>2</v>
-      </c>
-      <c r="I379">
-        <v>1</v>
-      </c>
-      <c r="J379">
-        <v>-1</v>
-      </c>
-      <c r="K379">
-        <v>-6</v>
-      </c>
-      <c r="L379">
-        <v>75</v>
-      </c>
-      <c r="M379">
-        <v>50</v>
-      </c>
-      <c r="N379">
-        <v>25</v>
-      </c>
-      <c r="O379">
-        <v>1021</v>
-      </c>
-      <c r="P379">
-        <v>1017</v>
-      </c>
-      <c r="Q379">
-        <v>1007</v>
-      </c>
-      <c r="R379">
-        <v>10</v>
-      </c>
-      <c r="S379">
-        <v>10</v>
-      </c>
-      <c r="T379">
-        <v>10</v>
-      </c>
-      <c r="U379">
-        <v>26</v>
-      </c>
-      <c r="V379">
-        <v>13</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>4</v>
-      </c>
-      <c r="AA379">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>19</v>
-      </c>
-      <c r="G380">
-        <v>11</v>
-      </c>
-      <c r="H380">
-        <v>2</v>
-      </c>
-      <c r="I380">
-        <v>0</v>
-      </c>
-      <c r="J380">
-        <v>-6</v>
-      </c>
-      <c r="K380">
-        <v>-16</v>
-      </c>
-      <c r="L380">
-        <v>70</v>
-      </c>
-      <c r="M380">
-        <v>34</v>
-      </c>
-      <c r="N380">
-        <v>4</v>
-      </c>
-      <c r="O380">
-        <v>1023</v>
-      </c>
-      <c r="P380">
-        <v>1020</v>
-      </c>
-      <c r="Q380">
-        <v>1014</v>
-      </c>
-      <c r="R380">
-        <v>14</v>
-      </c>
-      <c r="S380">
-        <v>10</v>
-      </c>
-      <c r="T380">
-        <v>10</v>
-      </c>
-      <c r="U380">
-        <v>19</v>
-      </c>
-      <c r="V380">
-        <v>10</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>1</v>
-      </c>
-      <c r="AA380">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>21</v>
-      </c>
-      <c r="G381">
-        <v>12</v>
-      </c>
-      <c r="H381">
-        <v>3</v>
-      </c>
-      <c r="I381">
-        <v>0</v>
-      </c>
-      <c r="J381">
-        <v>-6</v>
-      </c>
-      <c r="K381">
-        <v>-15</v>
-      </c>
-      <c r="L381">
-        <v>65</v>
-      </c>
-      <c r="M381">
-        <v>30</v>
-      </c>
-      <c r="N381">
-        <v>4</v>
-      </c>
-      <c r="O381">
-        <v>1020</v>
-      </c>
-      <c r="P381">
-        <v>1016</v>
-      </c>
-      <c r="Q381">
-        <v>1008</v>
-      </c>
-      <c r="R381">
-        <v>14</v>
-      </c>
-      <c r="S381">
-        <v>13</v>
-      </c>
-      <c r="T381">
-        <v>10</v>
-      </c>
-      <c r="U381">
-        <v>14</v>
-      </c>
-      <c r="V381">
-        <v>8</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="Y381">
-        <v>6</v>
-      </c>
-      <c r="AA381">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>24</v>
-      </c>
-      <c r="G382">
-        <v>13</v>
-      </c>
-      <c r="H382">
-        <v>3</v>
-      </c>
-      <c r="I382">
-        <v>-2</v>
-      </c>
-      <c r="J382">
-        <v>-10</v>
-      </c>
-      <c r="K382">
-        <v>-25</v>
-      </c>
-      <c r="L382">
-        <v>60</v>
-      </c>
-      <c r="M382">
-        <v>22</v>
-      </c>
-      <c r="N382">
-        <v>4</v>
-      </c>
-      <c r="O382">
-        <v>1018</v>
-      </c>
-      <c r="P382">
-        <v>1015</v>
-      </c>
-      <c r="Q382">
-        <v>1007</v>
-      </c>
-      <c r="R382">
-        <v>31</v>
-      </c>
-      <c r="S382">
-        <v>12</v>
-      </c>
-      <c r="T382">
-        <v>10</v>
-      </c>
-      <c r="U382">
-        <v>26</v>
-      </c>
-      <c r="V382">
-        <v>8</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>1</v>
-      </c>
-      <c r="AA382">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>25</v>
-      </c>
-      <c r="G383">
-        <v>16</v>
-      </c>
-      <c r="H383">
-        <v>6</v>
-      </c>
-      <c r="I383">
-        <v>0</v>
-      </c>
-      <c r="J383">
-        <v>-6</v>
-      </c>
-      <c r="K383">
-        <v>-19</v>
-      </c>
-      <c r="L383">
-        <v>53</v>
-      </c>
-      <c r="M383">
-        <v>25</v>
-      </c>
-      <c r="N383">
-        <v>4</v>
-      </c>
-      <c r="O383">
-        <v>1019</v>
-      </c>
-      <c r="P383">
-        <v>1015</v>
-      </c>
-      <c r="Q383">
-        <v>1006</v>
-      </c>
-      <c r="R383">
-        <v>19</v>
-      </c>
-      <c r="S383">
-        <v>11</v>
-      </c>
-      <c r="T383">
-        <v>10</v>
-      </c>
-      <c r="U383">
-        <v>29</v>
-      </c>
-      <c r="V383">
-        <v>13</v>
-      </c>
-      <c r="W383">
-        <v>52</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>2</v>
-      </c>
-      <c r="AA383">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>24</v>
-      </c>
-      <c r="G384">
-        <v>17</v>
-      </c>
-      <c r="H384">
-        <v>9</v>
-      </c>
-      <c r="I384">
-        <v>-2</v>
-      </c>
-      <c r="J384">
-        <v>-9</v>
-      </c>
-      <c r="K384">
-        <v>-14</v>
-      </c>
-      <c r="L384">
-        <v>43</v>
-      </c>
-      <c r="M384">
-        <v>17</v>
-      </c>
-      <c r="N384">
-        <v>4</v>
-      </c>
-      <c r="O384">
-        <v>1018</v>
-      </c>
-      <c r="P384">
-        <v>1014</v>
-      </c>
-      <c r="Q384">
-        <v>1004</v>
-      </c>
-      <c r="R384">
-        <v>19</v>
-      </c>
-      <c r="S384">
-        <v>11</v>
-      </c>
-      <c r="T384">
-        <v>10</v>
-      </c>
-      <c r="U384">
-        <v>40</v>
-      </c>
-      <c r="V384">
-        <v>14</v>
-      </c>
-      <c r="W384">
-        <v>34</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>4</v>
-      </c>
-      <c r="AA384">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>23</v>
-      </c>
-      <c r="G385">
-        <v>14</v>
-      </c>
-      <c r="H385">
-        <v>6</v>
-      </c>
-      <c r="I385">
-        <v>2</v>
-      </c>
-      <c r="J385">
-        <v>-2</v>
-      </c>
-      <c r="K385">
-        <v>-8</v>
-      </c>
-      <c r="L385">
-        <v>54</v>
-      </c>
-      <c r="M385">
-        <v>32</v>
-      </c>
-      <c r="N385">
-        <v>7</v>
-      </c>
-      <c r="O385">
-        <v>1020</v>
-      </c>
-      <c r="P385">
-        <v>1016</v>
-      </c>
-      <c r="Q385">
-        <v>1007</v>
-      </c>
-      <c r="R385">
-        <v>19</v>
-      </c>
-      <c r="S385">
-        <v>11</v>
-      </c>
-      <c r="T385">
-        <v>10</v>
-      </c>
-      <c r="U385">
-        <v>26</v>
-      </c>
-      <c r="V385">
-        <v>10</v>
-      </c>
-      <c r="W385">
-        <v>74</v>
-      </c>
-      <c r="X385">
-        <v>0</v>
-      </c>
-      <c r="Y385">
-        <v>4</v>
-      </c>
-      <c r="Z385" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA385">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>22</v>
-      </c>
-      <c r="G386">
-        <v>14</v>
-      </c>
-      <c r="H386">
-        <v>8</v>
-      </c>
-      <c r="I386">
-        <v>2</v>
-      </c>
-      <c r="J386">
-        <v>-1</v>
-      </c>
-      <c r="K386">
-        <v>-9</v>
-      </c>
-      <c r="L386">
-        <v>62</v>
-      </c>
-      <c r="M386">
-        <v>36</v>
-      </c>
-      <c r="N386">
-        <v>6</v>
-      </c>
-      <c r="O386">
-        <v>1020</v>
-      </c>
-      <c r="P386">
-        <v>1016</v>
-      </c>
-      <c r="Q386">
-        <v>1008</v>
-      </c>
-      <c r="R386">
-        <v>14</v>
-      </c>
-      <c r="S386">
-        <v>10</v>
-      </c>
-      <c r="T386">
-        <v>10</v>
-      </c>
-      <c r="U386">
-        <v>34</v>
-      </c>
-      <c r="V386">
-        <v>11</v>
-      </c>
-      <c r="W386">
-        <v>76</v>
-      </c>
-      <c r="X386">
-        <v>0</v>
-      </c>
-      <c r="Y386">
-        <v>5</v>
-      </c>
-      <c r="Z386" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA386">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>23</v>
-      </c>
-      <c r="G387">
-        <v>14</v>
-      </c>
-      <c r="H387">
-        <v>4</v>
-      </c>
-      <c r="I387">
-        <v>2</v>
-      </c>
-      <c r="J387">
-        <v>-2</v>
-      </c>
-      <c r="K387">
-        <v>-6</v>
-      </c>
-      <c r="L387">
-        <v>76</v>
-      </c>
-      <c r="M387">
-        <v>34</v>
-      </c>
-      <c r="N387">
-        <v>6</v>
-      </c>
-      <c r="O387">
-        <v>1023</v>
-      </c>
-      <c r="P387">
-        <v>1019</v>
-      </c>
-      <c r="Q387">
-        <v>1011</v>
-      </c>
-      <c r="R387">
-        <v>14</v>
-      </c>
-      <c r="S387">
-        <v>11</v>
-      </c>
-      <c r="T387">
-        <v>10</v>
-      </c>
-      <c r="U387">
-        <v>23</v>
-      </c>
-      <c r="V387">
-        <v>8</v>
-      </c>
-      <c r="X387">
-        <v>0</v>
-      </c>
-      <c r="Y387">
-        <v>3</v>
-      </c>
-      <c r="AA387">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>27</v>
-      </c>
-      <c r="G388">
-        <v>17</v>
-      </c>
-      <c r="H388">
-        <v>7</v>
-      </c>
-      <c r="I388">
-        <v>2</v>
-      </c>
-      <c r="J388">
-        <v>-3</v>
-      </c>
-      <c r="K388">
-        <v>-8</v>
-      </c>
-      <c r="L388">
-        <v>66</v>
-      </c>
-      <c r="M388">
-        <v>26</v>
-      </c>
-      <c r="N388">
-        <v>5</v>
-      </c>
-      <c r="O388">
-        <v>1022</v>
-      </c>
-      <c r="P388">
-        <v>1018</v>
-      </c>
-      <c r="Q388">
-        <v>1008</v>
-      </c>
-      <c r="R388">
-        <v>10</v>
-      </c>
-      <c r="S388">
-        <v>10</v>
-      </c>
-      <c r="T388">
-        <v>10</v>
-      </c>
-      <c r="U388">
-        <v>26</v>
-      </c>
-      <c r="V388">
-        <v>13</v>
-      </c>
-      <c r="X388">
-        <v>0</v>
-      </c>
-      <c r="Y388">
-        <v>3</v>
-      </c>
-      <c r="AA388">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -30052,7 +28583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30064,7 +28595,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
